--- a/Problem notes.xlsx
+++ b/Problem notes.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\python projects\Project Euler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF4E7827-8439-4BF6-AF80-C626EC27995C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45648160-9DDE-4819-8A4F-178A1F1C9BB6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{7EFEBB86-E58A-4D88-88C1-0DC7A6CC9448}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="1" xr2:uid="{7EFEBB86-E58A-4D88-88C1-0DC7A6CC9448}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="useful funcs" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -25,12 +26,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Problem</t>
   </si>
   <si>
     <t>Done?</t>
+  </si>
+  <si>
+    <t>Function</t>
+  </si>
+  <si>
+    <t>In problem…</t>
+  </si>
+  <si>
+    <t>getDiv</t>
+  </si>
+  <si>
+    <t>Gets list of all divisors, excluding the number itself</t>
+  </si>
+  <si>
+    <t>Notes</t>
   </si>
 </sst>
 </file>
@@ -384,8 +400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB3715B7-A3EA-4EB5-9479-4DD1D1B325D8}">
   <dimension ref="A1:B75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B68" sqref="B68"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -834,4 +850,41 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF8A2581-B615-43D0-810E-F467B496AD6F}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>